--- a/Excels/random_events.xlsx
+++ b/Excels/random_events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Driftlands\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319AA66-46A4-4D33-BA58-C3E10C1C0C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E583843-7B29-44CA-8392-CC1A892F8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1935" windowWidth="30120" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="2160" windowWidth="30120" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,14 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -464,19 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,9 +492,8 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -523,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -543,157 +536,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="F5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
+      <c r="E6">
+        <v>1001</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3001</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8">
+        <v>1001</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3002</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9">
+        <v>1001</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>4001</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>4002</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>1</v>
       </c>
     </row>

--- a/Excels/random_events.xlsx
+++ b/Excels/random_events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Driftlands\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E583843-7B29-44CA-8392-CC1A892F8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAD5110-D0F4-42FE-BC9D-EDC89DE55738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2160" windowWidth="30120" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="2775" windowWidth="30120" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阳关似乎没那么强烈了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身手敏捷躲过了陷阱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光似乎没那么强烈了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1001</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1001</v>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1001</v>
